--- a/project_2021/요구사항 명세서_프로젝트_nce.xlsx
+++ b/project_2021/요구사항 명세서_프로젝트_nce.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_NCE\project_nce\project_2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="636" yWindow="588" windowWidth="18012" windowHeight="10572"/>
+    <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$4:$K$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$4:$K$85</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -22,7 +27,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -3510,17 +3515,318 @@
       </rPr>
       <t>문의목록</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>validate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인하기</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일중복검사 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기존</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디인지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려주는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 회원과 중복되는 이메일인지 확인하고 알려주는 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소검색을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈화전</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 정보가 입력되었을 시 등록버튼을 누르면 등록되는 기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3873,6 +4179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3920,7 +4229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3952,9 +4261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3986,6 +4296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4161,33 +4472,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="0.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="51" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="0.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="0.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="1.5" customHeight="1">
+    <row r="1" spans="1:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4201,7 +4512,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="1.5" customHeight="1">
+    <row r="2" spans="1:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4215,7 +4526,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="47" customFormat="1" ht="14.4">
+    <row r="3" spans="1:12" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="48" t="s">
@@ -4231,7 +4542,7 @@
       <c r="K3" s="42"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -4265,7 +4576,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="56" t="s">
         <v>20</v>
       </c>
@@ -4279,7 +4590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -4299,7 +4610,7 @@
       <c r="K6" s="18"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="28.2">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -4319,7 +4630,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="18"/>
       <c r="C8" s="13"/>
@@ -4339,7 +4650,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="19"/>
@@ -4359,7 +4670,7 @@
       <c r="K9" s="18"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="13"/>
@@ -4379,7 +4690,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -4399,7 +4710,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="18"/>
       <c r="C12" s="13"/>
@@ -4419,7 +4730,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4429,15 +4740,19 @@
       <c r="E13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="12"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="18"/>
       <c r="C14" s="12"/>
@@ -4450,128 +4765,146 @@
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="14.4">
+      <c r="K15" s="18"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="E16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="12"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="17" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="J17" s="17"/>
       <c r="K17" s="12"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="21"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="J18" s="17"/>
       <c r="K18" s="12"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="13"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>43</v>
+      <c r="E20" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="13"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="14.4">
+      <c r="K20" s="18"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="12"/>
       <c r="D21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
@@ -4581,15 +4914,15 @@
       <c r="K21" s="12"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="22" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
@@ -4599,15 +4932,15 @@
       <c r="K22" s="12"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="23" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
@@ -4617,15 +4950,15 @@
       <c r="K23" s="12"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>47</v>
+      <c r="E24" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
@@ -4635,53 +4968,53 @@
       <c r="K24" s="12"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="19"/>
+    <row r="25" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="21"/>
+      <c r="E25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="13"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="15"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="21"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="13"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" s="9" customFormat="1" ht="14.4">
+      <c r="K26" s="18"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="D27" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
@@ -4691,15 +5024,15 @@
       <c r="K27" s="12"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="28" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
@@ -4709,17 +5042,15 @@
       <c r="K28" s="12"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="29" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
@@ -4729,9 +5060,9 @@
       <c r="K29" s="12"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="30" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="13" t="s">
         <v>54</v>
       </c>
@@ -4739,9 +5070,9 @@
         <v>55</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="F30" s="15"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="13"/>
@@ -4749,51 +5080,49 @@
       <c r="K30" s="12"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="21"/>
+      <c r="E31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="36"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="13"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" s="9" customFormat="1" ht="15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="18"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="E32" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="21"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="13"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" s="9" customFormat="1" ht="15">
+      <c r="K32" s="18"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="13" t="s">
         <v>54</v>
       </c>
@@ -4801,10 +5130,10 @@
         <v>55</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -4813,20 +5142,20 @@
       <c r="K33" s="12"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="34" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="13" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -4835,19 +5164,21 @@
       <c r="K34" s="12"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="35" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="13" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="15"/>
+        <v>62</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="13"/>
@@ -4855,9 +5186,9 @@
       <c r="K35" s="12"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="36" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="13" t="s">
         <v>54</v>
       </c>
@@ -4865,11 +5196,9 @@
         <v>59</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F36" s="15"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="13"/>
@@ -4877,31 +5206,31 @@
       <c r="K36" s="12"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:12" s="9" customFormat="1" ht="15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>76</v>
+      <c r="E37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="13"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" s="9" customFormat="1" ht="15">
+      <c r="K37" s="12"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="13" t="s">
         <v>54</v>
       </c>
@@ -4909,10 +5238,10 @@
         <v>59</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -4921,20 +5250,20 @@
       <c r="K38" s="18"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="39" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>61</v>
+      <c r="D39" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -4943,31 +5272,39 @@
       <c r="K39" s="18"/>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="15"/>
+    <row r="40" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="13"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" s="9" customFormat="1" ht="14.4">
+      <c r="K40" s="18"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="15"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="13"/>
@@ -4975,13 +5312,13 @@
       <c r="K41" s="12"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="42" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="13"/>
@@ -4989,13 +5326,13 @@
       <c r="K42" s="12"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="43" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="37"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="13"/>
@@ -5003,17 +5340,13 @@
       <c r="K43" s="12"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="44" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="15"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="13"/>
@@ -5021,13 +5354,17 @@
       <c r="K44" s="12"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="45" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="21"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="15"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="13"/>
@@ -5035,13 +5372,13 @@
       <c r="K45" s="12"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="46" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="13"/>
@@ -5049,45 +5386,45 @@
       <c r="K46" s="12"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" s="9" customFormat="1" ht="15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>69</v>
-      </c>
+    <row r="47" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="13"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="13"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:12" s="9" customFormat="1" ht="14.4">
+      <c r="K48" s="18"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="12"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="26"/>
@@ -5099,40 +5436,34 @@
       <c r="K49" s="12"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="50" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>70</v>
-      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="12"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="51" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>84</v>
+      <c r="B51" s="18"/>
+      <c r="C51" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
@@ -5141,16 +5472,18 @@
       <c r="K51" s="12"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" s="9" customFormat="1" ht="30">
+    <row r="52" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13" t="s">
-        <v>86</v>
+      <c r="D52" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -5159,35 +5492,37 @@
       <c r="K52" s="12"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="53" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="24"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="54" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="E54" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="12"/>
@@ -5195,15 +5530,15 @@
       <c r="K54" s="12"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="55" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="F55" s="28"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="12"/>
@@ -5211,15 +5546,15 @@
       <c r="K55" s="12"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="56" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="12"/>
@@ -5227,17 +5562,15 @@
       <c r="K56" s="12"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" s="9" customFormat="1" ht="15">
+    <row r="57" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>92</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F57" s="28"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="12"/>
@@ -5245,43 +5578,47 @@
       <c r="K57" s="12"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" s="9" customFormat="1" ht="15">
-      <c r="A58" s="11"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="20" t="s">
+    <row r="58" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E59" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F59" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="1:12" s="9" customFormat="1" ht="14.4">
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
-      <c r="B60" s="18"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -5289,13 +5626,13 @@
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="24"/>
+      <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="61" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
-      <c r="B61" s="12"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5307,37 +5644,37 @@
       <c r="K61" s="12"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="1:12" s="9" customFormat="1" ht="14.4">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
-      <c r="B64" s="12"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5345,13 +5682,13 @@
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="24"/>
+      <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="65" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
-      <c r="B65" s="18"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5363,9 +5700,9 @@
       <c r="K65" s="12"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="66" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
-      <c r="B66" s="12"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5377,9 +5714,9 @@
       <c r="K66" s="12"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="67" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
-      <c r="B67" s="18"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -5391,9 +5728,9 @@
       <c r="K67" s="12"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="68" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
-      <c r="B68" s="12"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -5401,13 +5738,13 @@
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
+      <c r="J68" s="24"/>
       <c r="K68" s="12"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="69" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="B69" s="18"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -5419,9 +5756,9 @@
       <c r="K69" s="12"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="70" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
-      <c r="B70" s="12"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -5433,9 +5770,9 @@
       <c r="K70" s="12"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="71" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
-      <c r="B71" s="18"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -5447,9 +5784,9 @@
       <c r="K71" s="12"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="72" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
-      <c r="B72" s="12"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -5461,9 +5798,9 @@
       <c r="K72" s="12"/>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="73" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
-      <c r="B73" s="18"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -5475,9 +5812,9 @@
       <c r="K73" s="12"/>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="74" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
-      <c r="B74" s="12"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -5489,9 +5826,9 @@
       <c r="K74" s="12"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="75" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -5503,9 +5840,9 @@
       <c r="K75" s="12"/>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="76" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
-      <c r="B76" s="12"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -5517,9 +5854,9 @@
       <c r="K76" s="12"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="77" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -5531,13 +5868,13 @@
       <c r="K77" s="12"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="78" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
-      <c r="B78" s="12"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="30"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="12"/>
@@ -5545,13 +5882,13 @@
       <c r="K78" s="12"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="79" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="28"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="30"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="12"/>
@@ -5559,40 +5896,40 @@
       <c r="K79" s="12"/>
       <c r="L79" s="8"/>
     </row>
-    <row r="80" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="11"/>
-    </row>
-    <row r="81" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="80" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
-      <c r="B82" s="12"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="30"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
@@ -5601,12 +5938,12 @@
       <c r="K82" s="12"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:12" s="9" customFormat="1" ht="14.4">
+    <row r="83" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
-      <c r="B83" s="18"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="25"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="30"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
@@ -5615,63 +5952,74 @@
       <c r="K83" s="12"/>
       <c r="L83" s="8"/>
     </row>
-    <row r="84" spans="1:12" s="9" customFormat="1" ht="14.4">
-      <c r="A84" s="7"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+    <row r="84" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
       <c r="E84" s="25"/>
-      <c r="F84" s="31"/>
+      <c r="F84" s="30"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="7"/>
-    </row>
-    <row r="85" spans="1:12" s="9" customFormat="1" ht="1.5" customHeight="1">
-      <c r="A85" s="8"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" s="9" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
       <c r="D86" s="49"/>
       <c r="E86" s="49"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:K84">
-    <filterColumn colId="1"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="8"/>
+  <autoFilter ref="B4:K85">
     <sortState ref="B2:K81">
       <sortCondition ref="B2:B81"/>
       <sortCondition ref="H2:H81"/>
